--- a/data/recruiterList.xlsx
+++ b/data/recruiterList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Desktop\Linkedin Automation Testing Project\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Desktop\Linkedin Automation Testing Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AE8397-AE26-4DEF-8ACA-6085261E456C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129A26E7-E59A-4DE6-9E5A-3FDFA738A167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24300" yWindow="3360" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Sameer  </t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaroop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rony </t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -357,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,6 +399,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/recruiterList.xlsx
+++ b/data/recruiterList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Desktop\Linkedin Automation Testing Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129A26E7-E59A-4DE6-9E5A-3FDFA738A167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953FD088-1855-45E1-A4E8-4DC17E574396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Sameer  </t>
   </si>
@@ -40,15 +40,6 @@
   </si>
   <si>
     <t>City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaroop </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rony </t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
 </sst>
 </file>
@@ -366,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,19 +390,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/recruiterList.xlsx
+++ b/data/recruiterList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Desktop\Linkedin Automation Testing Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953FD088-1855-45E1-A4E8-4DC17E574396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9635B77E-AF65-4A6C-B0C9-402779F7ACA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">Sameer  </t>
-  </si>
-  <si>
-    <t>Manzur</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>First Name</t>
   </si>
@@ -39,7 +33,22 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>City</t>
+    <t>Rony</t>
+  </si>
+  <si>
+    <t>jh</t>
+  </si>
+  <si>
+    <t>sameer</t>
+  </si>
+  <si>
+    <t>studyprep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaroop </t>
+  </si>
+  <si>
+    <t>Landge</t>
   </si>
 </sst>
 </file>
@@ -75,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,37 +369,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="3" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/recruiterList.xlsx
+++ b/data/recruiterList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Desktop\Linkedin Automation Testing Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9635B77E-AF65-4A6C-B0C9-402779F7ACA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B296974-2BD0-4012-951B-27B0A2106792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>First Name</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>studyprep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaroop </t>
-  </si>
-  <si>
-    <t>Landge</t>
   </si>
 </sst>
 </file>
@@ -369,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,14 +399,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
